--- a/data/female_conditioning/ovod1/rawresults_4-1_1-4_ovod1_b1.xlsx
+++ b/data/female_conditioning/ovod1/rawresults_4-1_1-4_ovod1_b1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/gitmicrobe-impacts-on-dietary-choice-in-drosophila-melanogaster/data/female_conditioning/ovod1/block_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_4/data/female_conditioning/ovod1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{306F2A8E-CB62-FB49-BFE1-B4FF9ED8F366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E246B3-A0E4-9145-98C7-088A4B9333D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C6D76C98-D4C2-A042-BDE7-6E3F4B68BEEE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{C6D76C98-D4C2-A042-BDE7-6E3F4B68BEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,15 +407,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2D0326-C5B9-064C-86FD-4A977FEA003D}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F81" sqref="A79:F81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -430,10 +430,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -490,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -510,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -570,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -590,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -610,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -650,10 +650,10 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -710,10 +710,10 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -730,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -770,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -830,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -850,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -870,10 +870,10 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -910,10 +910,10 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1090,10 +1090,10 @@
         <v>5</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -1130,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -1170,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1190,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1270,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1290,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>3</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>3</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1490,10 +1490,10 @@
         <v>5</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>3</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>7</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>4</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>6</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>5</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1910,10 +1910,10 @@
         <v>7</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -1950,10 +1950,10 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
